--- a/openwisp_ipam/tests/static/import_data.xlsx
+++ b/openwisp_ipam/tests/static/import_data.xlsx
@@ -19,7 +19,7 @@
     <t>44.134.38.0/23</t>
   </si>
   <si>
-    <t>Ham-Ninux</t>
+    <t>ham-ninux</t>
   </si>
   <si>
     <t>ip address</t>
